--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Dlk1-Notch2.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Dlk1-Notch2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Notch2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>2.00119913008538</v>
+        <v>0.09821600000000001</v>
       </c>
       <c r="H2">
-        <v>2.00119913008538</v>
+        <v>0.294648</v>
       </c>
       <c r="I2">
-        <v>0.5826634850963579</v>
+        <v>0.02540301315491012</v>
       </c>
       <c r="J2">
-        <v>0.5826634850963579</v>
+        <v>0.02540301315491011</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.65787809277289</v>
+        <v>31.96029466666667</v>
       </c>
       <c r="N2">
-        <v>7.65787809277289</v>
+        <v>95.88088399999999</v>
       </c>
       <c r="O2">
-        <v>0.1388037246686551</v>
+        <v>0.3907265741426954</v>
       </c>
       <c r="P2">
-        <v>0.1388037246686551</v>
+        <v>0.3907265741426953</v>
       </c>
       <c r="Q2">
-        <v>15.324938977557</v>
+        <v>3.139012300981334</v>
       </c>
       <c r="R2">
-        <v>15.324938977557</v>
+        <v>28.251110708832</v>
       </c>
       <c r="S2">
-        <v>0.08087586195979388</v>
+        <v>0.009925632302919856</v>
       </c>
       <c r="T2">
-        <v>0.08087586195979388</v>
+        <v>0.009925632302919853</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>2.00119913008538</v>
+        <v>0.09821600000000001</v>
       </c>
       <c r="H3">
-        <v>2.00119913008538</v>
+        <v>0.294648</v>
       </c>
       <c r="I3">
-        <v>0.5826634850963579</v>
+        <v>0.02540301315491012</v>
       </c>
       <c r="J3">
-        <v>0.5826634850963579</v>
+        <v>0.02540301315491011</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>26.326460990703</v>
+        <v>26.34807</v>
       </c>
       <c r="N3">
-        <v>26.326460990703</v>
+        <v>79.04420999999999</v>
       </c>
       <c r="O3">
-        <v>0.4771832090539915</v>
+        <v>0.3221150253382706</v>
       </c>
       <c r="P3">
-        <v>0.4771832090539915</v>
+        <v>0.3221150253382706</v>
       </c>
       <c r="Q3">
-        <v>52.68449083282154</v>
+        <v>2.58780204312</v>
       </c>
       <c r="R3">
-        <v>52.68449083282154</v>
+        <v>23.29021838808</v>
       </c>
       <c r="S3">
-        <v>0.2780372316168626</v>
+        <v>0.008182692226062294</v>
       </c>
       <c r="T3">
-        <v>0.2780372316168626</v>
+        <v>0.008182692226062292</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>2.00119913008538</v>
+        <v>0.09821600000000001</v>
       </c>
       <c r="H4">
-        <v>2.00119913008538</v>
+        <v>0.294648</v>
       </c>
       <c r="I4">
-        <v>0.5826634850963579</v>
+        <v>0.02540301315491012</v>
       </c>
       <c r="J4">
-        <v>0.5826634850963579</v>
+        <v>0.02540301315491011</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.1862127951093</v>
+        <v>23.48872</v>
       </c>
       <c r="N4">
-        <v>21.1862127951093</v>
+        <v>70.46616</v>
       </c>
       <c r="O4">
-        <v>0.3840130662773534</v>
+        <v>0.287158400519034</v>
       </c>
       <c r="P4">
-        <v>0.3840130662773534</v>
+        <v>0.287158400519034</v>
       </c>
       <c r="Q4">
-        <v>42.39783061537648</v>
+        <v>2.30696812352</v>
       </c>
       <c r="R4">
-        <v>42.39783061537648</v>
+        <v>20.76271311168</v>
       </c>
       <c r="S4">
-        <v>0.2237503915197014</v>
+        <v>0.007294688625927971</v>
       </c>
       <c r="T4">
-        <v>0.2237503915197014</v>
+        <v>0.007294688625927967</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.43337190666739</v>
+        <v>2.101448</v>
       </c>
       <c r="H5">
-        <v>1.43337190666739</v>
+        <v>6.304344</v>
       </c>
       <c r="I5">
-        <v>0.4173365149036422</v>
+        <v>0.5435276450716743</v>
       </c>
       <c r="J5">
-        <v>0.4173365149036422</v>
+        <v>0.5435276450716742</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.65787809277289</v>
+        <v>31.96029466666667</v>
       </c>
       <c r="N5">
-        <v>7.65787809277289</v>
+        <v>95.88088399999999</v>
       </c>
       <c r="O5">
-        <v>0.1388037246686551</v>
+        <v>0.3907265741426954</v>
       </c>
       <c r="P5">
-        <v>0.1388037246686551</v>
+        <v>0.3907265741426953</v>
       </c>
       <c r="Q5">
-        <v>10.97658732286431</v>
+        <v>67.16289730667734</v>
       </c>
       <c r="R5">
-        <v>10.97658732286431</v>
+        <v>604.466075760096</v>
       </c>
       <c r="S5">
-        <v>0.05792786270886122</v>
+        <v>0.2123706947107022</v>
       </c>
       <c r="T5">
-        <v>0.05792786270886122</v>
+        <v>0.2123706947107021</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.43337190666739</v>
+        <v>2.101448</v>
       </c>
       <c r="H6">
-        <v>1.43337190666739</v>
+        <v>6.304344</v>
       </c>
       <c r="I6">
-        <v>0.4173365149036422</v>
+        <v>0.5435276450716743</v>
       </c>
       <c r="J6">
-        <v>0.4173365149036422</v>
+        <v>0.5435276450716742</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>26.326460990703</v>
+        <v>26.34807</v>
       </c>
       <c r="N6">
-        <v>26.326460990703</v>
+        <v>79.04420999999999</v>
       </c>
       <c r="O6">
-        <v>0.4771832090539915</v>
+        <v>0.3221150253382706</v>
       </c>
       <c r="P6">
-        <v>0.4771832090539915</v>
+        <v>0.3221150253382706</v>
       </c>
       <c r="Q6">
-        <v>37.73560958604862</v>
+        <v>55.36909900535999</v>
       </c>
       <c r="R6">
-        <v>37.73560958604862</v>
+        <v>498.32189104824</v>
       </c>
       <c r="S6">
-        <v>0.1991459774371289</v>
+        <v>0.1750784211643129</v>
       </c>
       <c r="T6">
-        <v>0.1991459774371289</v>
+        <v>0.1750784211643129</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.101448</v>
+      </c>
+      <c r="H7">
+        <v>6.304344</v>
+      </c>
+      <c r="I7">
+        <v>0.5435276450716743</v>
+      </c>
+      <c r="J7">
+        <v>0.5435276450716742</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>23.48872</v>
+      </c>
+      <c r="N7">
+        <v>70.46616</v>
+      </c>
+      <c r="O7">
+        <v>0.287158400519034</v>
+      </c>
+      <c r="P7">
+        <v>0.287158400519034</v>
+      </c>
+      <c r="Q7">
+        <v>49.36032366656</v>
+      </c>
+      <c r="R7">
+        <v>444.24291299904</v>
+      </c>
+      <c r="S7">
+        <v>0.1560785291966592</v>
+      </c>
+      <c r="T7">
+        <v>0.1560785291966592</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.666649</v>
+      </c>
+      <c r="H8">
+        <v>4.999947</v>
+      </c>
+      <c r="I8">
+        <v>0.4310693417734156</v>
+      </c>
+      <c r="J8">
+        <v>0.4310693417734155</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>31.96029466666667</v>
+      </c>
+      <c r="N8">
+        <v>95.88088399999999</v>
+      </c>
+      <c r="O8">
+        <v>0.3907265741426954</v>
+      </c>
+      <c r="P8">
+        <v>0.3907265741426953</v>
+      </c>
+      <c r="Q8">
+        <v>53.26659314590533</v>
+      </c>
+      <c r="R8">
+        <v>479.399338313148</v>
+      </c>
+      <c r="S8">
+        <v>0.1684302471290734</v>
+      </c>
+      <c r="T8">
+        <v>0.1684302471290733</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.43337190666739</v>
-      </c>
-      <c r="H7">
-        <v>1.43337190666739</v>
-      </c>
-      <c r="I7">
-        <v>0.4173365149036422</v>
-      </c>
-      <c r="J7">
-        <v>0.4173365149036422</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>21.1862127951093</v>
-      </c>
-      <c r="N7">
-        <v>21.1862127951093</v>
-      </c>
-      <c r="O7">
-        <v>0.3840130662773534</v>
-      </c>
-      <c r="P7">
-        <v>0.3840130662773534</v>
-      </c>
-      <c r="Q7">
-        <v>30.36772222918687</v>
-      </c>
-      <c r="R7">
-        <v>30.36772222918687</v>
-      </c>
-      <c r="S7">
-        <v>0.160262674757652</v>
-      </c>
-      <c r="T7">
-        <v>0.160262674757652</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.666649</v>
+      </c>
+      <c r="H9">
+        <v>4.999947</v>
+      </c>
+      <c r="I9">
+        <v>0.4310693417734156</v>
+      </c>
+      <c r="J9">
+        <v>0.4310693417734155</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>26.34807</v>
+      </c>
+      <c r="N9">
+        <v>79.04420999999999</v>
+      </c>
+      <c r="O9">
+        <v>0.3221150253382706</v>
+      </c>
+      <c r="P9">
+        <v>0.3221150253382706</v>
+      </c>
+      <c r="Q9">
+        <v>43.91298451742999</v>
+      </c>
+      <c r="R9">
+        <v>395.2168606568699</v>
+      </c>
+      <c r="S9">
+        <v>0.1388539119478954</v>
+      </c>
+      <c r="T9">
+        <v>0.1388539119478954</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.666649</v>
+      </c>
+      <c r="H10">
+        <v>4.999947</v>
+      </c>
+      <c r="I10">
+        <v>0.4310693417734156</v>
+      </c>
+      <c r="J10">
+        <v>0.4310693417734155</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>23.48872</v>
+      </c>
+      <c r="N10">
+        <v>70.46616</v>
+      </c>
+      <c r="O10">
+        <v>0.287158400519034</v>
+      </c>
+      <c r="P10">
+        <v>0.287158400519034</v>
+      </c>
+      <c r="Q10">
+        <v>39.14745169928</v>
+      </c>
+      <c r="R10">
+        <v>352.32706529352</v>
+      </c>
+      <c r="S10">
+        <v>0.1237851826964468</v>
+      </c>
+      <c r="T10">
+        <v>0.1237851826964468</v>
       </c>
     </row>
   </sheetData>
